--- a/Document/WebTours_Профиль_нагрузки.xlsx
+++ b/Document/WebTours_Профиль_нагрузки.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="84">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>Duration + Think_time</t>
-  </si>
-  <si>
-    <t>Action_Transaction</t>
   </si>
   <si>
     <t>Операция (бизнес процесс)/Скрип</t>
@@ -451,12 +448,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1488,99 +1493,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1609,24 +1628,24 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1635,16 +1654,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1653,31 +1672,31 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1688,24 +1707,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1730,9 +1749,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="106"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="120"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="120"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="106"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="120"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="34" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="39" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,113 +1793,94 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="34" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="39" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="134"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="134"/>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="148">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% — акцент1 2 2" xfId="94"/>
     <cellStyle name="20% — акцент1 3" xfId="68"/>
     <cellStyle name="20% — акцент1 4" xfId="108"/>
     <cellStyle name="20% — акцент1 5" xfId="122"/>
+    <cellStyle name="20% — акцент1 6" xfId="136"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% — акцент2 2 2" xfId="96"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент2 4" xfId="110"/>
     <cellStyle name="20% — акцент2 5" xfId="124"/>
+    <cellStyle name="20% — акцент2 6" xfId="138"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% — акцент3 2 2" xfId="98"/>
     <cellStyle name="20% — акцент3 3" xfId="72"/>
     <cellStyle name="20% — акцент3 4" xfId="112"/>
     <cellStyle name="20% — акцент3 5" xfId="126"/>
+    <cellStyle name="20% — акцент3 6" xfId="140"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% — акцент4 2 2" xfId="100"/>
     <cellStyle name="20% — акцент4 3" xfId="74"/>
     <cellStyle name="20% — акцент4 4" xfId="114"/>
     <cellStyle name="20% — акцент4 5" xfId="128"/>
+    <cellStyle name="20% — акцент4 6" xfId="142"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% — акцент5 2 2" xfId="102"/>
     <cellStyle name="20% — акцент5 3" xfId="76"/>
     <cellStyle name="20% — акцент5 4" xfId="116"/>
     <cellStyle name="20% — акцент5 5" xfId="130"/>
+    <cellStyle name="20% — акцент5 6" xfId="144"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="20% — акцент6 2 2" xfId="104"/>
     <cellStyle name="20% — акцент6 3" xfId="78"/>
     <cellStyle name="20% — акцент6 4" xfId="118"/>
     <cellStyle name="20% — акцент6 5" xfId="132"/>
+    <cellStyle name="20% — акцент6 6" xfId="146"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% — акцент1 2 2" xfId="95"/>
     <cellStyle name="40% — акцент1 3" xfId="69"/>
     <cellStyle name="40% — акцент1 4" xfId="109"/>
     <cellStyle name="40% — акцент1 5" xfId="123"/>
+    <cellStyle name="40% — акцент1 6" xfId="137"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% — акцент2 2 2" xfId="97"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент2 4" xfId="111"/>
     <cellStyle name="40% — акцент2 5" xfId="125"/>
+    <cellStyle name="40% — акцент2 6" xfId="139"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% — акцент3 2 2" xfId="99"/>
     <cellStyle name="40% — акцент3 3" xfId="73"/>
     <cellStyle name="40% — акцент3 4" xfId="113"/>
     <cellStyle name="40% — акцент3 5" xfId="127"/>
+    <cellStyle name="40% — акцент3 6" xfId="141"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% — акцент4 2 2" xfId="101"/>
     <cellStyle name="40% — акцент4 3" xfId="75"/>
     <cellStyle name="40% — акцент4 4" xfId="115"/>
     <cellStyle name="40% — акцент4 5" xfId="129"/>
+    <cellStyle name="40% — акцент4 6" xfId="143"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% — акцент5 2 2" xfId="103"/>
     <cellStyle name="40% — акцент5 3" xfId="77"/>
     <cellStyle name="40% — акцент5 4" xfId="117"/>
     <cellStyle name="40% — акцент5 5" xfId="131"/>
+    <cellStyle name="40% — акцент5 6" xfId="145"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="40% — акцент6 2 2" xfId="105"/>
     <cellStyle name="40% — акцент6 3" xfId="79"/>
     <cellStyle name="40% — акцент6 4" xfId="119"/>
     <cellStyle name="40% — акцент6 5" xfId="133"/>
+    <cellStyle name="40% — акцент6 6" xfId="147"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент1 3" xfId="83"/>
@@ -1897,6 +1929,7 @@
     <cellStyle name="Обычный 6" xfId="66"/>
     <cellStyle name="Обычный 7" xfId="106"/>
     <cellStyle name="Обычный 8" xfId="120"/>
+    <cellStyle name="Обычный 9" xfId="134"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
@@ -1906,6 +1939,7 @@
     <cellStyle name="Примечание 4" xfId="67"/>
     <cellStyle name="Примечание 5" xfId="107"/>
     <cellStyle name="Примечание 6" xfId="121"/>
+    <cellStyle name="Примечание 7" xfId="135"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Процентный 2" xfId="91"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
@@ -2764,13 +2798,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -2788,7 +2822,7 @@
         <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>25</v>
@@ -3456,7 +3490,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="6">
         <v>32.432432432432435</v>
@@ -3494,7 +3528,7 @@
         <v>32.432432432432435</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="6">
         <v>988.55462335950142</v>
@@ -3570,7 +3604,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="35">
         <v>1</v>
@@ -4063,10 +4097,10 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="95"/>
     </row>
     <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
@@ -4121,11 +4155,11 @@
       </c>
       <c r="H38" s="27">
         <f>VLOOKUP(Соответствие!B2,SummaryReportDebug!A:J,8,FALSE)</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I38" s="12">
         <f t="shared" ref="I38:I49" si="23">1-G38/H38</f>
-        <v>-7.0844563784226988E-3</v>
+        <v>-1.3008482592413495E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4154,11 +4188,11 @@
       </c>
       <c r="H39" s="27">
         <f>VLOOKUP(Соответствие!B3,SummaryReportDebug!A:J,8,FALSE)</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I39" s="12">
         <f>1-G39/H39</f>
-        <v>1.5640777406493611E-2</v>
+        <v>1.5785027980149691E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4187,11 +4221,11 @@
       </c>
       <c r="H40" s="27">
         <f>VLOOKUP(Соответствие!B4,SummaryReportDebug!A:J,8,FALSE)</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I40" s="12">
         <f>1-G40/H40</f>
-        <v>3.8241493526046333E-2</v>
+        <v>2.0095106611443425E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4319,11 +4353,11 @@
       </c>
       <c r="H44" s="27">
         <f>VLOOKUP(Соответствие!B8,SummaryReportDebug!A:J,8,FALSE)</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="23"/>
-        <v>5.8349865795309652E-3</v>
+        <v>-1.5544906182199503E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4385,11 +4419,11 @@
       </c>
       <c r="H46" s="27">
         <f>VLOOKUP(Соответствие!B10,SummaryReportDebug!A:J,8,FALSE)</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I46" s="12">
         <f t="shared" si="23"/>
-        <v>4.4749103572632953E-2</v>
+        <v>2.8420028420028332E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4460,7 +4494,7 @@
     </row>
     <row r="49" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="44">
         <v>97</v>
@@ -4515,11 +4549,11 @@
       </c>
       <c r="H51">
         <f>SUM(H38:H49)</f>
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="I51" s="64">
         <f>1-G51/H51</f>
-        <v>1.8317156544685687E-2</v>
+        <v>9.4643052510005043E-3</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -4533,106 +4567,106 @@
       <c r="H52" s="17"/>
     </row>
     <row r="61" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K61" s="89"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="77"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="73"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K62" s="83"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="77"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="73"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K63" s="83"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="82"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="78"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K64" s="83"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="83"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="79"/>
     </row>
     <row r="65" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K65" s="83"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="86"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="83"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="79"/>
     </row>
     <row r="66" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K66" s="83"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="86"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="83"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="79"/>
     </row>
     <row r="67" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K67" s="83"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="83"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="79"/>
     </row>
     <row r="68" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K68" s="83"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="83"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="79"/>
     </row>
     <row r="69" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K69" s="83"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="83"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="79"/>
     </row>
     <row r="70" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K70" s="83"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="86"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="83"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="75"/>
+      <c r="O70" s="79"/>
     </row>
     <row r="71" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K71" s="83"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="86"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="83"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="79"/>
     </row>
     <row r="72" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K72" s="83"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="86"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="83"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="75"/>
+      <c r="O72" s="79"/>
     </row>
     <row r="73" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K73" s="83"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="83"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="79"/>
     </row>
     <row r="74" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="88"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
     </row>
     <row r="75" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4672,7 +4706,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4681,7 +4715,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4690,7 +4724,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4699,7 +4733,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4742,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4751,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4726,7 +4760,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4735,7 +4769,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4778,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4753,7 +4787,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4762,7 +4796,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4771,7 +4805,7 @@
         <v>Переход на следующий экран после регистрации</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4789,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4832,612 +4866,592 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="97">
+        <v>0.124</v>
+      </c>
+      <c r="D2" s="97">
+        <v>0.153</v>
+      </c>
+      <c r="E2" s="97">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F2" s="97">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G2" s="97">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="H2" s="97">
+        <v>93</v>
+      </c>
+      <c r="I2" s="97">
+        <v>0</v>
+      </c>
+      <c r="J2" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="97">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D3" s="97">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E3" s="97">
+        <v>0.121</v>
+      </c>
+      <c r="F3" s="97">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G3" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="97">
+        <v>25</v>
+      </c>
+      <c r="I3" s="97">
+        <v>0</v>
+      </c>
+      <c r="J3" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="97">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D4" s="97">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E4" s="97">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F4" s="97">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4" s="97">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H4" s="97">
+        <v>94</v>
+      </c>
+      <c r="I4" s="97">
+        <v>0</v>
+      </c>
+      <c r="J4" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="97">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D5" s="97">
+        <v>0.122</v>
+      </c>
+      <c r="E5" s="97">
+        <v>0.19</v>
+      </c>
+      <c r="F5" s="97">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G5" s="97">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H5" s="97">
+        <v>140</v>
+      </c>
+      <c r="I5" s="97">
+        <v>0</v>
+      </c>
+      <c r="J5" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="97">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D6" s="97">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E6" s="97">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F6" s="97">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G6" s="97">
+        <v>0.129</v>
+      </c>
+      <c r="H6" s="97">
+        <v>117</v>
+      </c>
+      <c r="I6" s="97">
+        <v>0</v>
+      </c>
+      <c r="J6" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="97">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D7" s="97">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E7" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="97">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G7" s="97">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H7" s="97">
+        <v>58</v>
+      </c>
+      <c r="I7" s="97">
+        <v>0</v>
+      </c>
+      <c r="J7" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="97">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D8" s="97">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E8" s="97">
+        <v>0.106</v>
+      </c>
+      <c r="F8" s="97">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G8" s="97">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H8" s="97">
+        <v>34</v>
+      </c>
+      <c r="I8" s="97">
+        <v>0</v>
+      </c>
+      <c r="J8" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="97">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D9" s="97">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E9" s="97">
+        <v>0.113</v>
+      </c>
+      <c r="F9" s="97">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G9" s="97">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H9" s="97">
+        <v>94</v>
+      </c>
+      <c r="I9" s="97">
+        <v>0</v>
+      </c>
+      <c r="J9" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="97">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D10" s="97">
+        <v>0.107</v>
+      </c>
+      <c r="E10" s="97">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F10" s="97">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G10" s="97">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H10" s="97">
+        <v>170</v>
+      </c>
+      <c r="I10" s="97">
+        <v>0</v>
+      </c>
+      <c r="J10" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="97">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="97">
+        <v>0.122</v>
+      </c>
+      <c r="E11" s="97">
+        <v>0.159</v>
+      </c>
+      <c r="F11" s="97">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G11" s="97">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H11" s="97">
+        <v>34</v>
+      </c>
+      <c r="I11" s="97">
+        <v>0</v>
+      </c>
+      <c r="J11" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="97">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D12" s="97">
+        <v>0.151</v>
+      </c>
+      <c r="E12" s="97">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F12" s="97">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G12" s="97">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="H12" s="97">
+        <v>106</v>
+      </c>
+      <c r="I12" s="97">
+        <v>0</v>
+      </c>
+      <c r="J12" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="97">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D13" s="97">
+        <v>0.107</v>
+      </c>
+      <c r="E13" s="97">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F13" s="97">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G13" s="97">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H13" s="97">
+        <v>33</v>
+      </c>
+      <c r="I13" s="97">
+        <v>0</v>
+      </c>
+      <c r="J13" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="97">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D14" s="97">
+        <v>0.754</v>
+      </c>
+      <c r="E14" s="97">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F14" s="97">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G14" s="97">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H14" s="97">
+        <v>57</v>
+      </c>
+      <c r="I14" s="97">
+        <v>0</v>
+      </c>
+      <c r="J14" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="97">
         <v>0.374</v>
       </c>
-      <c r="D2" s="69">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E2" s="69">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="F2" s="69">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G2" s="69">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="H2" s="69">
-        <v>177</v>
-      </c>
-      <c r="I2" s="69">
-        <v>0</v>
-      </c>
-      <c r="J2" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="69" t="s">
+      <c r="D15" s="97">
+        <v>0.503</v>
+      </c>
+      <c r="E15" s="97">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F15" s="97">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G15" s="97">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="H15" s="97">
+        <v>33</v>
+      </c>
+      <c r="I15" s="97">
+        <v>0</v>
+      </c>
+      <c r="J15" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="69">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D3" s="69">
+      <c r="C16" s="97">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D16" s="97">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E16" s="97">
+        <v>0.81</v>
+      </c>
+      <c r="F16" s="97">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G16" s="97">
+        <v>0.751</v>
+      </c>
+      <c r="H16" s="97">
+        <v>36</v>
+      </c>
+      <c r="I16" s="97">
+        <v>0</v>
+      </c>
+      <c r="J16" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="97">
+        <v>0.435</v>
+      </c>
+      <c r="D17" s="97">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E17" s="97">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F17" s="97">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G17" s="97">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H17" s="97">
+        <v>25</v>
+      </c>
+      <c r="I17" s="97">
+        <v>0</v>
+      </c>
+      <c r="J17" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="97">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D18" s="97">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E18" s="97">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F18" s="97">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G18" s="97">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H18" s="97">
+        <v>11</v>
+      </c>
+      <c r="I18" s="97">
+        <v>0</v>
+      </c>
+      <c r="J18" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="97">
+        <v>0.378</v>
+      </c>
+      <c r="D19" s="97">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E19" s="97">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F19" s="97">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E3" s="69">
-        <v>0.121</v>
-      </c>
-      <c r="F3" s="69">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G3" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="69">
-        <v>25</v>
-      </c>
-      <c r="I3" s="69">
-        <v>0</v>
-      </c>
-      <c r="J3" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="69">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D4" s="69">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E4" s="69">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F4" s="69">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G4" s="69">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H4" s="69">
-        <v>94</v>
-      </c>
-      <c r="I4" s="69">
-        <v>0</v>
-      </c>
-      <c r="J4" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="69">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D5" s="69">
-        <v>0.122</v>
-      </c>
-      <c r="E5" s="69">
-        <v>0.19</v>
-      </c>
-      <c r="F5" s="69">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G5" s="69">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H5" s="69">
-        <v>142</v>
-      </c>
-      <c r="I5" s="69">
-        <v>0</v>
-      </c>
-      <c r="J5" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="69">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D6" s="69">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E6" s="69">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F6" s="69">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G6" s="69">
-        <v>0.129</v>
-      </c>
-      <c r="H6" s="69">
-        <v>119</v>
-      </c>
-      <c r="I6" s="69">
-        <v>0</v>
-      </c>
-      <c r="J6" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="69">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D7" s="69">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E7" s="69">
-        <v>0.13</v>
-      </c>
-      <c r="F7" s="69">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G7" s="69">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H7" s="69">
-        <v>58</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="69">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D8" s="69">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E8" s="69">
-        <v>0.106</v>
-      </c>
-      <c r="F8" s="69">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G8" s="69">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H8" s="69">
-        <v>34</v>
-      </c>
-      <c r="I8" s="69">
-        <v>0</v>
-      </c>
-      <c r="J8" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="69">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D9" s="69">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E9" s="69">
-        <v>0.113</v>
-      </c>
-      <c r="F9" s="69">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G9" s="69">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="H9" s="69">
-        <v>94</v>
-      </c>
-      <c r="I9" s="69">
-        <v>0</v>
-      </c>
-      <c r="J9" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="69">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D10" s="69">
-        <v>0.107</v>
-      </c>
-      <c r="E10" s="69">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F10" s="69">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G10" s="69">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H10" s="69">
-        <v>171</v>
-      </c>
-      <c r="I10" s="69">
-        <v>0</v>
-      </c>
-      <c r="J10" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="69">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D11" s="69">
-        <v>0.122</v>
-      </c>
-      <c r="E11" s="69">
-        <v>0.159</v>
-      </c>
-      <c r="F11" s="69">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G11" s="69">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H11" s="69">
-        <v>34</v>
-      </c>
-      <c r="I11" s="69">
-        <v>0</v>
-      </c>
-      <c r="J11" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="69">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D12" s="69">
-        <v>0.15</v>
-      </c>
-      <c r="E12" s="69">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F12" s="69">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G12" s="69">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="H12" s="69">
-        <v>108</v>
-      </c>
-      <c r="I12" s="69">
-        <v>0</v>
-      </c>
-      <c r="J12" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="69">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D13" s="69">
-        <v>0.107</v>
-      </c>
-      <c r="E13" s="69">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="F13" s="69">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G13" s="69">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="H13" s="69">
-        <v>33</v>
-      </c>
-      <c r="I13" s="69">
-        <v>0</v>
-      </c>
-      <c r="J13" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="69">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="D14" s="69">
-        <v>0.751</v>
-      </c>
-      <c r="E14" s="69">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="F14" s="69">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G14" s="69">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="H14" s="69">
-        <v>58</v>
-      </c>
-      <c r="I14" s="69">
-        <v>0</v>
-      </c>
-      <c r="J14" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="69">
-        <v>0.374</v>
-      </c>
-      <c r="D15" s="69">
-        <v>0.499</v>
-      </c>
-      <c r="E15" s="69">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="F15" s="69">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G15" s="69">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="H15" s="69">
-        <v>34</v>
-      </c>
-      <c r="I15" s="69">
-        <v>0</v>
-      </c>
-      <c r="J15" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="69">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="D16" s="69">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E16" s="69">
-        <v>0.81</v>
-      </c>
-      <c r="F16" s="69">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G16" s="69">
-        <v>0.751</v>
-      </c>
-      <c r="H16" s="69">
-        <v>36</v>
-      </c>
-      <c r="I16" s="69">
-        <v>0</v>
-      </c>
-      <c r="J16" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="69">
-        <v>0.435</v>
-      </c>
-      <c r="D17" s="69">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="E17" s="69">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="F17" s="69">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G17" s="69">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="H17" s="69">
-        <v>25</v>
-      </c>
-      <c r="I17" s="69">
-        <v>0</v>
-      </c>
-      <c r="J17" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="69">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D18" s="69">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="E18" s="69">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="F18" s="69">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G18" s="69">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="H18" s="69">
-        <v>11</v>
-      </c>
-      <c r="I18" s="69">
-        <v>0</v>
-      </c>
-      <c r="J18" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="69">
-        <v>0.378</v>
-      </c>
-      <c r="D19" s="69">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="E19" s="69">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="F19" s="69">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G19" s="69">
+      <c r="G19" s="97">
         <v>0.58799999999999997</v>
       </c>
-      <c r="H19" s="69">
-        <v>13</v>
-      </c>
-      <c r="I19" s="69">
-        <v>0</v>
-      </c>
-      <c r="J19" s="69">
+      <c r="H19" s="97">
+        <v>12</v>
+      </c>
+      <c r="I19" s="97">
+        <v>0</v>
+      </c>
+      <c r="J19" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="69">
-        <v>0.124</v>
-      </c>
-      <c r="D20" s="69">
-        <v>0.153</v>
-      </c>
-      <c r="E20" s="69">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F20" s="69">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G20" s="69">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="H20" s="69">
-        <v>95</v>
-      </c>
-      <c r="I20" s="69">
-        <v>0</v>
-      </c>
-      <c r="J20" s="69">
-        <v>0</v>
-      </c>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5449,7 +5463,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J19"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5490,578 +5504,578 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="98">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D2" s="98">
+        <v>0.19</v>
+      </c>
+      <c r="E2" s="98">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="F2" s="98">
+        <v>0.182</v>
+      </c>
+      <c r="G2" s="98">
+        <v>0.191</v>
+      </c>
+      <c r="H2" s="98">
+        <v>281</v>
+      </c>
+      <c r="I2" s="98">
+        <v>0</v>
+      </c>
+      <c r="J2" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="98">
         <v>4.7E-2</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="98">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="98">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="98">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="98">
         <v>0.107</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="98">
+        <v>75</v>
+      </c>
+      <c r="I3" s="98">
+        <v>0</v>
+      </c>
+      <c r="J3" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="98">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D4" s="98">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E4" s="98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4" s="98">
+        <v>0.104</v>
+      </c>
+      <c r="G4" s="98">
+        <v>0.106</v>
+      </c>
+      <c r="H4" s="98">
+        <v>278</v>
+      </c>
+      <c r="I4" s="98">
+        <v>0</v>
+      </c>
+      <c r="J4" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="98">
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="98">
+        <v>0.185</v>
+      </c>
+      <c r="E5" s="98">
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="F5" s="98">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H5" s="98">
+        <v>420</v>
+      </c>
+      <c r="I5" s="98">
+        <v>0</v>
+      </c>
+      <c r="J5" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="98">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D6" s="98">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E6" s="98">
+        <v>2.169</v>
+      </c>
+      <c r="F6" s="98">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G6" s="98">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H6" s="98">
+        <v>349</v>
+      </c>
+      <c r="I6" s="98">
+        <v>0</v>
+      </c>
+      <c r="J6" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="98">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D7" s="98">
+        <v>0.112</v>
+      </c>
+      <c r="E7" s="98">
+        <v>1.496</v>
+      </c>
+      <c r="F7" s="98">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0.106</v>
+      </c>
+      <c r="H7" s="98">
+        <v>172</v>
+      </c>
+      <c r="I7" s="98">
+        <v>0</v>
+      </c>
+      <c r="J7" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="98">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D8" s="98">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E8" s="98">
+        <v>0.128</v>
+      </c>
+      <c r="F8" s="98">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G8" s="98">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="98">
+        <v>98</v>
+      </c>
+      <c r="I8" s="98">
+        <v>0</v>
+      </c>
+      <c r="J8" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="98">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D9" s="98">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E9" s="98">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F9" s="98">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G9" s="98">
+        <v>0.104</v>
+      </c>
+      <c r="H9" s="98">
+        <v>280</v>
+      </c>
+      <c r="I9" s="98">
+        <v>0</v>
+      </c>
+      <c r="J9" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="98">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D10" s="98">
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="98">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="F10" s="98">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G10" s="98">
+        <v>0.155</v>
+      </c>
+      <c r="H10" s="98">
+        <v>514</v>
+      </c>
+      <c r="I10" s="98">
+        <v>0</v>
+      </c>
+      <c r="J10" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="98">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D11" s="98">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E11" s="98">
+        <v>1.425</v>
+      </c>
+      <c r="F11" s="98">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G11" s="98">
+        <v>0.158</v>
+      </c>
+      <c r="H11" s="98">
+        <v>98</v>
+      </c>
+      <c r="I11" s="98">
+        <v>0</v>
+      </c>
+      <c r="J11" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="98">
+        <v>0.109</v>
+      </c>
+      <c r="D12" s="98">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E12" s="98">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="F12" s="98">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G12" s="98">
+        <v>0.192</v>
+      </c>
+      <c r="H12" s="98">
+        <v>313</v>
+      </c>
+      <c r="I12" s="98">
+        <v>0</v>
+      </c>
+      <c r="J12" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="98">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D13" s="98">
+        <v>0.157</v>
+      </c>
+      <c r="E13" s="98">
+        <v>1.873</v>
+      </c>
+      <c r="F13" s="98">
+        <v>0.248</v>
+      </c>
+      <c r="G13" s="98">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H13" s="98">
+        <v>97</v>
+      </c>
+      <c r="I13" s="98">
+        <v>0</v>
+      </c>
+      <c r="J13" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B14" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="98">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="98">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E14" s="98">
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="F14" s="98">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="98">
+        <v>1.746</v>
+      </c>
+      <c r="H14" s="98">
+        <v>173</v>
+      </c>
+      <c r="I14" s="98">
+        <v>0</v>
+      </c>
+      <c r="J14" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="98">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D15" s="98">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="E15" s="98">
+        <v>2.762</v>
+      </c>
+      <c r="F15" s="98">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G15" s="98">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H15" s="98">
+        <v>98</v>
+      </c>
+      <c r="I15" s="98">
+        <v>0</v>
+      </c>
+      <c r="J15" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="98">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D16" s="98">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E16" s="98">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="F16" s="98">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="G16" s="98">
+        <v>1.885</v>
+      </c>
+      <c r="H16" s="98">
+        <v>108</v>
+      </c>
+      <c r="I16" s="98">
+        <v>0</v>
+      </c>
+      <c r="J16" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="98">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D17" s="98">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E17" s="98">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="F17" s="98">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G17" s="98">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H17" s="98">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I17" s="98">
+        <v>0</v>
+      </c>
+      <c r="J17" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.104</v>
-      </c>
-      <c r="G3">
-        <v>0.106</v>
-      </c>
-      <c r="H3">
-        <v>281</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C18" s="98">
+        <v>0.35</v>
+      </c>
+      <c r="D18" s="98">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="98">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="F18" s="98">
+        <v>0.621</v>
+      </c>
+      <c r="G18" s="98">
+        <v>1.714</v>
+      </c>
+      <c r="H18" s="98">
+        <v>32</v>
+      </c>
+      <c r="I18" s="98">
+        <v>0</v>
+      </c>
+      <c r="J18" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C4">
-        <v>0.09</v>
-      </c>
-      <c r="D4">
-        <v>0.184</v>
-      </c>
-      <c r="E4">
-        <v>2.1629999999999998</v>
-      </c>
-      <c r="F4">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="H4">
-        <v>429</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E5">
-        <v>2.169</v>
-      </c>
-      <c r="F5">
-        <v>0.17</v>
-      </c>
-      <c r="G5">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H5">
-        <v>355</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.111</v>
-      </c>
-      <c r="E6">
-        <v>1.496</v>
-      </c>
-      <c r="F6">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.106</v>
-      </c>
-      <c r="H6">
-        <v>175</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.128</v>
-      </c>
-      <c r="F7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D8">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F8">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.104</v>
-      </c>
-      <c r="H8">
-        <v>283</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E9">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.255</v>
-      </c>
-      <c r="G9">
-        <v>0.155</v>
-      </c>
-      <c r="H9">
-        <v>527</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E10">
-        <v>1.425</v>
-      </c>
-      <c r="F10">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.159</v>
-      </c>
-      <c r="H10">
-        <v>99</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>0.109</v>
-      </c>
-      <c r="D11">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="E11">
-        <v>2.0259999999999998</v>
-      </c>
-      <c r="F11">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.191</v>
-      </c>
-      <c r="H11">
-        <v>320</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D12">
-        <v>0.155</v>
-      </c>
-      <c r="E12">
-        <v>1.873</v>
-      </c>
-      <c r="F12">
-        <v>0.246</v>
-      </c>
-      <c r="G12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H12">
-        <v>99</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.189</v>
-      </c>
-      <c r="E13">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="F13">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.191</v>
-      </c>
-      <c r="H13">
-        <v>285</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14">
-        <v>0.6</v>
-      </c>
-      <c r="D14">
-        <v>0.96</v>
-      </c>
-      <c r="E14">
-        <v>2.8860000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="G14">
-        <v>1.746</v>
-      </c>
-      <c r="H14">
-        <v>175</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="E15">
-        <v>2.762</v>
-      </c>
-      <c r="F15">
-        <v>0.442</v>
-      </c>
-      <c r="G15">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H15">
-        <v>99</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D16">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="E16">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="F16">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="G16">
-        <v>1.885</v>
-      </c>
-      <c r="H16">
-        <v>108</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="E17">
-        <v>2.9590000000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H17">
-        <v>77</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>0.35</v>
-      </c>
-      <c r="D18">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="E18">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="G18">
-        <v>1.714</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19">
+      <c r="C19" s="98">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D19">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="98">
+        <v>0.878</v>
+      </c>
+      <c r="E19" s="98">
         <v>2.6549999999999998</v>
       </c>
-      <c r="F19">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="98">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G19" s="98">
         <v>2.5070000000000001</v>
       </c>
-      <c r="H19">
-        <v>38</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="H19" s="98">
+        <v>36</v>
+      </c>
+      <c r="I19" s="98">
+        <v>0</v>
+      </c>
+      <c r="J19" s="98">
         <v>0</v>
       </c>
     </row>
@@ -6075,7 +6089,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="A2" sqref="A2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,578 +6130,578 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>5.0170000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H2">
+        <v>838</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.18</v>
+      </c>
+      <c r="G3">
+        <v>0.105</v>
+      </c>
+      <c r="H3">
+        <v>224</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>831</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E5">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.16</v>
+      </c>
+      <c r="H5">
+        <v>1265</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="71">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D2" s="71">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="E2" s="71">
-        <v>5.0170000000000003</v>
-      </c>
-      <c r="F2" s="71">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G2" s="71">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="H2" s="71">
-        <v>865</v>
-      </c>
-      <c r="I2" s="71">
+      <c r="C6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E6">
+        <v>4.0990000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.39</v>
+      </c>
+      <c r="G6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1043</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.121</v>
+      </c>
+      <c r="E7">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.106</v>
+      </c>
+      <c r="H7">
+        <v>516</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H8">
+        <v>291</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H9">
+        <v>832</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.191</v>
+      </c>
+      <c r="E10">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1553</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E11">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.186</v>
+      </c>
+      <c r="H11">
+        <v>292</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.016</v>
+      </c>
+      <c r="F12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.19</v>
+      </c>
+      <c r="H12">
+        <v>942</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E13">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H13">
+        <v>290</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D14">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="E14">
+        <v>10.869</v>
+      </c>
+      <c r="F14">
+        <v>1.226</v>
+      </c>
+      <c r="G14">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="H14">
+        <v>516</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E15">
+        <v>9.9860000000000007</v>
+      </c>
+      <c r="F15">
+        <v>1.492</v>
+      </c>
+      <c r="G15">
+        <v>1.431</v>
+      </c>
+      <c r="H15">
+        <v>293</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D16">
+        <v>1.016</v>
+      </c>
+      <c r="E16">
+        <v>11.173999999999999</v>
+      </c>
+      <c r="F16">
+        <v>1.552</v>
+      </c>
+      <c r="G16">
+        <v>1.33</v>
+      </c>
+      <c r="H16">
+        <v>318</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>0.39</v>
+      </c>
+      <c r="D17">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E17">
+        <v>10.73</v>
+      </c>
+      <c r="F17">
+        <v>1.381</v>
+      </c>
+      <c r="G17">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H17">
+        <v>225</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="J2" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="71" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="71">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D3" s="71">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E3" s="71">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="F3" s="71">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="G3" s="71">
-        <v>0.104</v>
-      </c>
-      <c r="H3" s="71">
-        <v>232</v>
-      </c>
-      <c r="I3" s="71">
-        <v>0</v>
-      </c>
-      <c r="J3" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="C18">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D18">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="E18">
+        <v>11.172000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="G18">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="H18">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="71">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D4" s="71">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E4" s="71">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="F4" s="71">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G4" s="71">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H4" s="71">
-        <v>859</v>
-      </c>
-      <c r="I4" s="71">
-        <v>0</v>
-      </c>
-      <c r="J4" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="71">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D5" s="71">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E5" s="71">
-        <v>5.5330000000000004</v>
-      </c>
-      <c r="F5" s="71">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="G5" s="71">
-        <v>0.16</v>
-      </c>
-      <c r="H5" s="71">
-        <v>1302</v>
-      </c>
-      <c r="I5" s="71">
-        <v>0</v>
-      </c>
-      <c r="J5" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="71">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D6" s="71">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="E6" s="71">
-        <v>4.0990000000000002</v>
-      </c>
-      <c r="F6" s="71">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G6" s="71">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="H6" s="71">
-        <v>1081</v>
-      </c>
-      <c r="I6" s="71">
-        <v>0</v>
-      </c>
-      <c r="J6" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="71">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D7" s="71">
-        <v>0.12</v>
-      </c>
-      <c r="E7" s="71">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="F7" s="71">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G7" s="71">
-        <v>0.106</v>
-      </c>
-      <c r="H7" s="71">
-        <v>533</v>
-      </c>
-      <c r="I7" s="71">
-        <v>0</v>
-      </c>
-      <c r="J7" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="71">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D8" s="71">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E8" s="71">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="F8" s="71">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="G8" s="71">
-        <v>0.09</v>
-      </c>
-      <c r="H8" s="71">
-        <v>303</v>
-      </c>
-      <c r="I8" s="71">
-        <v>0</v>
-      </c>
-      <c r="J8" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="71">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D9" s="71">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E9" s="71">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="F9" s="71">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G9" s="71">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H9" s="71">
-        <v>861</v>
-      </c>
-      <c r="I9" s="71">
-        <v>0</v>
-      </c>
-      <c r="J9" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="71">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D10" s="71">
-        <v>0.191</v>
-      </c>
-      <c r="E10" s="71">
-        <v>5.7750000000000004</v>
-      </c>
-      <c r="F10" s="71">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="G10" s="71">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H10" s="71">
-        <v>1600</v>
-      </c>
-      <c r="I10" s="71">
-        <v>0</v>
-      </c>
-      <c r="J10" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="71">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="D11" s="71">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="E11" s="71">
-        <v>4.8979999999999997</v>
-      </c>
-      <c r="F11" s="71">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="G11" s="71">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H11" s="71">
-        <v>304</v>
-      </c>
-      <c r="I11" s="71">
-        <v>0</v>
-      </c>
-      <c r="J11" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="71">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="D12" s="71">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E12" s="71">
-        <v>5.016</v>
-      </c>
-      <c r="F12" s="71">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="G12" s="71">
-        <v>0.19</v>
-      </c>
-      <c r="H12" s="71">
-        <v>969</v>
-      </c>
-      <c r="I12" s="71">
-        <v>0</v>
-      </c>
-      <c r="J12" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="71">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D13" s="71">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="E13" s="71">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="F13" s="71">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="G13" s="71">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="H13" s="71">
-        <v>302</v>
-      </c>
-      <c r="I13" s="71">
-        <v>0</v>
-      </c>
-      <c r="J13" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="71">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D14" s="71">
-        <v>1.048</v>
-      </c>
-      <c r="E14" s="71">
-        <v>10.869</v>
-      </c>
-      <c r="F14" s="71">
-        <v>1.208</v>
-      </c>
-      <c r="G14" s="71">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="H14" s="71">
-        <v>533</v>
-      </c>
-      <c r="I14" s="71">
-        <v>0</v>
-      </c>
-      <c r="J14" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="71">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D15" s="71">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="E15" s="71">
-        <v>9.9860000000000007</v>
-      </c>
-      <c r="F15" s="71">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="G15" s="71">
-        <v>1.409</v>
-      </c>
-      <c r="H15" s="71">
-        <v>305</v>
-      </c>
-      <c r="I15" s="71">
-        <v>0</v>
-      </c>
-      <c r="J15" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="71">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D16" s="71">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E16" s="71">
-        <v>11.173999999999999</v>
-      </c>
-      <c r="F16" s="71">
-        <v>1.528</v>
-      </c>
-      <c r="G16" s="71">
-        <v>1.345</v>
-      </c>
-      <c r="H16" s="71">
-        <v>330</v>
-      </c>
-      <c r="I16" s="71">
-        <v>0</v>
-      </c>
-      <c r="J16" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="71">
-        <v>0.39</v>
-      </c>
-      <c r="D17" s="71">
-        <v>0.83</v>
-      </c>
-      <c r="E17" s="71">
-        <v>10.73</v>
-      </c>
-      <c r="F17" s="71">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="G17" s="71">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="H17" s="71">
-        <v>233</v>
-      </c>
-      <c r="I17" s="71">
-        <v>1</v>
-      </c>
-      <c r="J17" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="71">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D18" s="71">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="E18" s="71">
-        <v>11.172000000000001</v>
-      </c>
-      <c r="F18" s="71">
-        <v>1.8560000000000001</v>
-      </c>
-      <c r="G18" s="71">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="H18" s="71">
-        <v>101</v>
-      </c>
-      <c r="I18" s="71">
-        <v>0</v>
-      </c>
-      <c r="J18" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="71">
+      <c r="C19">
         <v>0.373</v>
       </c>
-      <c r="D19" s="71">
-        <v>1.623</v>
-      </c>
-      <c r="E19" s="71">
+      <c r="D19">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="E19">
         <v>11.292</v>
       </c>
-      <c r="F19" s="71">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="G19" s="71">
-        <v>4.4459999999999997</v>
-      </c>
-      <c r="H19" s="71">
-        <v>112</v>
-      </c>
-      <c r="I19" s="71">
-        <v>0</v>
-      </c>
-      <c r="J19" s="71">
+      <c r="F19">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="G19">
+        <v>4.6230000000000002</v>
+      </c>
+      <c r="H19">
+        <v>109</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
@@ -6701,7 +6715,7 @@
   <dimension ref="B2:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:I22"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,28 +6737,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="97" t="s">
+      <c r="G4" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="93" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6761,13 +6775,13 @@
         <f>'Автоматизированный расчет'!C38/3</f>
         <v>172.2114420407103</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="86">
         <f>VLOOKUP(Соответствие!B2,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>175.66666666666666</v>
+        <v>171.33333333333334</v>
       </c>
       <c r="I5" s="12">
-        <f>1-G5/H5</f>
-        <v>1.9669210394438474E-2</v>
+        <f t="shared" ref="I5:I16" si="0">1-G5/H5</f>
+        <v>-5.1251480975309516E-3</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -6783,13 +6797,13 @@
         <f>'Автоматизированный расчет'!C39/3</f>
         <v>139.7790096082779</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="86">
         <f>VLOOKUP(Соответствие!B3,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I6" s="12">
-        <f>1-G6/H6</f>
-        <v>2.2524408333720936E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5785027980149691E-3</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -6805,19 +6819,19 @@
         <f>'Автоматизированный расчет'!C40/3</f>
         <v>103.869918699187</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="86">
         <f>VLOOKUP(Соответствие!B4,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>106.66666666666667</v>
+        <v>104.33333333333333</v>
       </c>
       <c r="I7" s="12">
-        <f>1-G7/H7</f>
-        <v>2.6219512195121975E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4416738097092789E-3</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="49" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
@@ -6830,19 +6844,19 @@
         <f>'Автоматизированный расчет'!C41/3</f>
         <v>91.869918699186996</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="86">
         <f>VLOOKUP(Соответствие!B5,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>93.666666666666671</v>
+        <v>92.666666666666671</v>
       </c>
       <c r="I8" s="12">
-        <f>1-G8/H8</f>
-        <v>1.9182362642131801E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.597999649061272E-3</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="49" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
@@ -6855,19 +6869,19 @@
         <f>'Автоматизированный расчет'!C42/3</f>
         <v>91.869918699186996</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="86">
         <f>VLOOKUP(Соответствие!B6,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>94.333333333333329</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="I9" s="12">
-        <f>1-G9/H9</f>
-        <v>2.6113936051021192E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5679442508710673E-2</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="49" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v>Оплата билета</v>
@@ -6880,19 +6894,19 @@
         <f>'Автоматизированный расчет'!C43/3</f>
         <v>58.536585365853654</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="86">
         <f>VLOOKUP(Соответствие!B7,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>58.333333333333336</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="I10" s="12">
-        <f>1-G10/H10</f>
-        <v>-3.4843205574912606E-3</v>
+        <f t="shared" si="0"/>
+        <v>-2.0986954055586926E-2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="49" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v>Просмотр квитанций</v>
@@ -6905,19 +6919,19 @@
         <f>'Автоматизированный расчет'!C44/3</f>
         <v>94.44567627494456</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="86">
         <f>VLOOKUP(Соответствие!B8,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>95</v>
+        <v>93.666666666666671</v>
       </c>
       <c r="I11" s="12">
-        <f>1-G11/H11</f>
-        <v>5.8349865795309652E-3</v>
+        <f t="shared" si="0"/>
+        <v>-8.3168285581269874E-3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="49" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v xml:space="preserve">Отмена бронирования </v>
@@ -6930,19 +6944,19 @@
         <f>'Автоматизированный расчет'!C45/3</f>
         <v>25</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="86">
         <f>VLOOKUP(Соответствие!B9,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>25.666666666666668</v>
+        <v>25</v>
       </c>
       <c r="I12" s="12">
-        <f>1-G12/H12</f>
-        <v>2.5974025974025983E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="49" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Выход из системы</v>
@@ -6955,19 +6969,19 @@
         <f>'Автоматизированный расчет'!C46/3</f>
         <v>113.67485667485668</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="86">
         <f>VLOOKUP(Соответствие!B10,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>118.33333333333333</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="I13" s="12">
-        <f>1-G13/H13</f>
-        <v>3.9367408381492774E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2852234886618694E-2</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="49" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Перход на страницу регистрации</v>
@@ -6980,19 +6994,19 @@
         <f>'Автоматизированный расчет'!C47/3</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="86">
         <f>VLOOKUP(Соответствие!B11,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>33</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="I14" s="12">
-        <f>1-G14/H14</f>
-        <v>1.7199017199017064E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.0649205906938537E-3</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="49" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Заполнение полей регистарции</v>
@@ -7005,19 +7019,19 @@
         <f>'Автоматизированный расчет'!C48/3</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="86">
         <f>VLOOKUP(Соответствие!B12,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>33.333333333333336</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="I15" s="12">
-        <f>1-G15/H15</f>
-        <v>2.7027027027026973E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.1704357418641562E-3</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="49" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Переход на следующий экран после регистрации</v>
@@ -7030,43 +7044,43 @@
         <f>'Автоматизированный расчет'!C49/3</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="86">
         <f>VLOOKUP(Соответствие!B13,SummaryReportMax!A:J,8,FALSE)/3</f>
-        <v>33</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="I16" s="12">
-        <f>1-G16/H16</f>
-        <v>1.7199017199017064E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.1704357418641562E-3</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="96" t="s">
+      <c r="E24" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="97" t="s">
+      <c r="G24" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="97" t="s">
+      <c r="I24" s="93" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7075,7 +7089,7 @@
         <f>'Автоматизированный расчет'!A38</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="F25" s="91" t="str">
+      <c r="F25" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A38,Соответствие!A:B,2,FALSE)</f>
         <v>StartWebTours</v>
       </c>
@@ -7083,13 +7097,13 @@
         <f>'Автоматизированный расчет'!C38/3</f>
         <v>172.2114420407103</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="86">
         <f>VLOOKUP(Соответствие!B2,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>177.77777777777777</v>
+        <v>172.55555555555554</v>
       </c>
       <c r="I25" s="12">
-        <f>1-G25/H25</f>
-        <v>3.1310638521004575E-2</v>
+        <f t="shared" ref="I25:I36" si="1">1-G25/H25</f>
+        <v>1.9942186951752428E-3</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -7097,7 +7111,7 @@
         <f>'Автоматизированный расчет'!A39</f>
         <v>Вход в систему</v>
       </c>
-      <c r="F26" s="91" t="str">
+      <c r="F26" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A39,Соответствие!A:B,2,FALSE)</f>
         <v>LogIn</v>
       </c>
@@ -7105,13 +7119,13 @@
         <f>'Автоматизированный расчет'!C39/3</f>
         <v>139.7790096082779</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="86">
         <f>VLOOKUP(Соответствие!B3,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>144.66666666666666</v>
+        <v>140.55555555555554</v>
       </c>
       <c r="I26" s="12">
-        <f>1-G26/H26</f>
-        <v>3.3785647869046698E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.5248328264811963E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -7119,7 +7133,7 @@
         <f>'Автоматизированный расчет'!A40</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="F27" s="91" t="str">
+      <c r="F27" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A40,Соответствие!A:B,2,FALSE)</f>
         <v>ToFlightsPage</v>
       </c>
@@ -7127,13 +7141,13 @@
         <f>'Автоматизированный расчет'!C40/3</f>
         <v>103.869918699187</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="86">
         <f>VLOOKUP(Соответствие!B4,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>107.66666666666667</v>
+        <v>104.66666666666667</v>
       </c>
       <c r="I27" s="12">
-        <f>1-G27/H27</f>
-        <v>3.526391301064713E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6122417275128473E-3</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -7141,7 +7155,7 @@
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="F28" s="91" t="str">
+      <c r="F28" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A41,Соответствие!A:B,2,FALSE)</f>
         <v>EnterFlightsData</v>
       </c>
@@ -7149,13 +7163,13 @@
         <f>'Автоматизированный расчет'!C41/3</f>
         <v>91.869918699186996</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="86">
         <f>VLOOKUP(Соответствие!B5,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>95.444444444444443</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="I28" s="12">
-        <f>1-G28/H28</f>
-        <v>3.7451375677901022E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0189310557364752E-3</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -7163,7 +7177,7 @@
         <f>'Автоматизированный расчет'!A42</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="F29" s="91" t="str">
+      <c r="F29" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A42,Соответствие!A:B,2,FALSE)</f>
         <v>SelectFlights</v>
       </c>
@@ -7171,13 +7185,13 @@
         <f>'Автоматизированный расчет'!C42/3</f>
         <v>91.869918699186996</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="86">
         <f>VLOOKUP(Соответствие!B6,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>95.666666666666671</v>
+        <v>92.444444444444443</v>
       </c>
       <c r="I29" s="12">
-        <f>1-G29/H29</f>
-        <v>3.968726098410813E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2148217636022185E-3</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -7185,7 +7199,7 @@
         <f>'Автоматизированный расчет'!A43</f>
         <v>Оплата билета</v>
       </c>
-      <c r="F30" s="91" t="str">
+      <c r="F30" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A43,Соответствие!A:B,2,FALSE)</f>
         <v>PayTicket</v>
       </c>
@@ -7193,13 +7207,13 @@
         <f>'Автоматизированный расчет'!C43/3</f>
         <v>58.536585365853654</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="86">
         <f>VLOOKUP(Соответствие!B7,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>59.222222222222221</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="I30" s="12">
-        <f>1-G30/H30</f>
-        <v>1.1577357799844479E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.0986954055586926E-2</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -7207,7 +7221,7 @@
         <f>'Автоматизированный расчет'!A44</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="F31" s="91" t="str">
+      <c r="F31" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A44,Соответствие!A:B,2,FALSE)</f>
         <v>ViewAllTicket</v>
       </c>
@@ -7215,13 +7229,13 @@
         <f>'Автоматизированный расчет'!C44/3</f>
         <v>94.44567627494456</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="86">
         <f>VLOOKUP(Соответствие!B8,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>96.111111111111114</v>
+        <v>93.111111111111114</v>
       </c>
       <c r="I31" s="12">
-        <f>1-G31/H31</f>
-        <v>1.7328223728900527E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.4333038752387894E-2</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -7229,7 +7243,7 @@
         <f>'Автоматизированный расчет'!A45</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="F32" s="91" t="str">
+      <c r="F32" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A45,Соответствие!A:B,2,FALSE)</f>
         <v>DeleteTicket</v>
       </c>
@@ -7237,13 +7251,13 @@
         <f>'Автоматизированный расчет'!C45/3</f>
         <v>25</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="86">
         <f>VLOOKUP(Соответствие!B9,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>25.777777777777779</v>
+        <v>24.888888888888889</v>
       </c>
       <c r="I32" s="12">
-        <f>1-G32/H32</f>
-        <v>3.0172413793103425E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.4642857142855874E-3</v>
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
@@ -7251,7 +7265,7 @@
         <f>'Автоматизированный расчет'!A46</f>
         <v>Выход из системы</v>
       </c>
-      <c r="F33" s="91" t="str">
+      <c r="F33" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A46,Соответствие!A:B,2,FALSE)</f>
         <v>LogOut</v>
       </c>
@@ -7259,13 +7273,13 @@
         <f>'Автоматизированный расчет'!C46/3</f>
         <v>113.67485667485668</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="86">
         <f>VLOOKUP(Соответствие!B10,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>120.11111111111111</v>
+        <v>115.88888888888889</v>
       </c>
       <c r="I33" s="12">
-        <f>1-G33/H33</f>
-        <v>5.3585837119602076E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.910478420545525E-2</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
@@ -7273,7 +7287,7 @@
         <f>'Автоматизированный расчет'!A47</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="F34" s="91" t="str">
+      <c r="F34" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A47,Соответствие!A:B,2,FALSE)</f>
         <v>ToRegistrationPage</v>
       </c>
@@ -7281,13 +7295,13 @@
         <f>'Автоматизированный расчет'!C47/3</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="86">
         <f>VLOOKUP(Соответствие!B11,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>33.555555555555557</v>
+        <v>32.222222222222221</v>
       </c>
       <c r="I34" s="12">
-        <f>1-G34/H34</f>
-        <v>3.3470556649364602E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.5237651444549627E-3</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
@@ -7295,7 +7309,7 @@
         <f>'Автоматизированный расчет'!A48</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="F35" s="91" t="str">
+      <c r="F35" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A48,Соответствие!A:B,2,FALSE)</f>
         <v>Registration</v>
       </c>
@@ -7303,13 +7317,13 @@
         <f>'Автоматизированный расчет'!C48/3</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H35" s="90">
+      <c r="H35" s="86">
         <f>VLOOKUP(Соответствие!B12,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>33.666666666666664</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="I35" s="12">
-        <f>1-G35/H35</f>
-        <v>3.6660422799036474E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.0649205906938537E-3</v>
       </c>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
@@ -7317,7 +7331,7 @@
         <f>'Автоматизированный расчет'!A49</f>
         <v>Переход на следующий экран после регистрации</v>
       </c>
-      <c r="F36" s="91" t="str">
+      <c r="F36" s="87" t="str">
         <f>VLOOKUP('Автоматизированный расчет'!A49,Соответствие!A:B,2,FALSE)</f>
         <v>ToAfterRegistrationPage</v>
       </c>
@@ -7325,13 +7339,13 @@
         <f>'Автоматизированный расчет'!C49/3</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H36" s="90">
+      <c r="H36" s="86">
         <f>VLOOKUP(Соответствие!B13,SummaryReportMaxConfirm!A:J,8,FALSE)/9</f>
-        <v>33.777777777777779</v>
+        <v>32.444444444444443</v>
       </c>
       <c r="I36" s="12">
-        <f>1-G36/H36</f>
-        <v>3.9829302987197668E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7023324694540616E-4</v>
       </c>
     </row>
     <row r="45" spans="5:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Document/WebTours_Профиль_нагрузки.xlsx
+++ b/Document/WebTours_Профиль_нагрузки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -970,7 +970,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1492,6 +1492,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1643,7 +1667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1784,6 +1808,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="134"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="134"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1793,8 +1819,33 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="134"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="134"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="148">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2742,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,6 +2820,7 @@
     <col min="17" max="17" width="26" customWidth="1"/>
     <col min="18" max="18" width="10.42578125" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
     <col min="22" max="22" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3259,8 +3311,8 @@
         <v>20</v>
       </c>
       <c r="U7" s="9">
-        <f>SUM(U2:U6)</f>
-        <v>160</v>
+        <f>ROUND(R7*S7*T7,0)</f>
+        <v>12</v>
       </c>
       <c r="V7" s="18">
         <f t="shared" si="5"/>
@@ -3728,8 +3780,8 @@
       <c r="A21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>3</v>
+      <c r="B21" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="52">
         <v>1</v>
@@ -3759,8 +3811,8 @@
       <c r="A22" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>46</v>
+      <c r="B22" s="51" t="s">
+        <v>3</v>
       </c>
       <c r="C22" s="58">
         <v>1</v>
@@ -4097,10 +4149,10 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="97"/>
     </row>
     <row r="37" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
@@ -4566,107 +4618,169 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+    </row>
     <row r="61" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="80"/>
       <c r="K61" s="85"/>
       <c r="L61" s="74"/>
       <c r="M61" s="81"/>
       <c r="N61" s="74"/>
       <c r="O61" s="73"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="74"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="80"/>
       <c r="K62" s="79"/>
       <c r="L62" s="77"/>
       <c r="M62" s="82"/>
       <c r="N62" s="75"/>
       <c r="O62" s="73"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="106"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="80"/>
       <c r="K63" s="79"/>
       <c r="L63" s="77"/>
       <c r="M63" s="83"/>
       <c r="N63" s="76"/>
       <c r="O63" s="78"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="80"/>
       <c r="K64" s="79"/>
       <c r="L64" s="77"/>
       <c r="M64" s="82"/>
       <c r="N64" s="75"/>
       <c r="O64" s="79"/>
     </row>
-    <row r="65" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="107"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="80"/>
       <c r="K65" s="79"/>
       <c r="L65" s="77"/>
       <c r="M65" s="82"/>
       <c r="N65" s="75"/>
       <c r="O65" s="79"/>
     </row>
-    <row r="66" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="107"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="80"/>
       <c r="K66" s="79"/>
       <c r="L66" s="77"/>
       <c r="M66" s="82"/>
       <c r="N66" s="75"/>
       <c r="O66" s="79"/>
     </row>
-    <row r="67" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="107"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="80"/>
       <c r="K67" s="79"/>
       <c r="L67" s="77"/>
       <c r="M67" s="82"/>
       <c r="N67" s="75"/>
       <c r="O67" s="79"/>
     </row>
-    <row r="68" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="107"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="80"/>
       <c r="K68" s="79"/>
       <c r="L68" s="77"/>
       <c r="M68" s="82"/>
       <c r="N68" s="75"/>
       <c r="O68" s="79"/>
     </row>
-    <row r="69" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="107"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="80"/>
       <c r="K69" s="79"/>
       <c r="L69" s="77"/>
       <c r="M69" s="82"/>
       <c r="N69" s="75"/>
       <c r="O69" s="79"/>
     </row>
-    <row r="70" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="106"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="80"/>
       <c r="K70" s="79"/>
       <c r="L70" s="77"/>
       <c r="M70" s="82"/>
       <c r="N70" s="75"/>
       <c r="O70" s="79"/>
     </row>
-    <row r="71" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="109"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="80"/>
       <c r="K71" s="79"/>
       <c r="L71" s="77"/>
       <c r="M71" s="82"/>
       <c r="N71" s="75"/>
       <c r="O71" s="79"/>
     </row>
-    <row r="72" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="109"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="80"/>
       <c r="K72" s="79"/>
       <c r="L72" s="77"/>
       <c r="M72" s="82"/>
       <c r="N72" s="75"/>
       <c r="O72" s="79"/>
     </row>
-    <row r="73" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="109"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="80"/>
       <c r="K73" s="79"/>
       <c r="L73" s="77"/>
       <c r="M73" s="82"/>
       <c r="N73" s="75"/>
       <c r="O73" s="79"/>
     </row>
-    <row r="74" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="104"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="99"/>
       <c r="K74" s="80"/>
       <c r="L74" s="80"/>
       <c r="M74" s="84"/>
       <c r="N74" s="80"/>
       <c r="O74" s="80"/>
     </row>
-    <row r="75" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="100"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="101"/>
       <c r="K75" s="80"/>
       <c r="L75" s="80"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4866,578 +4980,578 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="94">
         <v>0.124</v>
       </c>
-      <c r="D2" s="97">
+      <c r="D2" s="94">
         <v>0.153</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="94">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F2" s="97">
+      <c r="F2" s="94">
         <v>2.3E-2</v>
       </c>
-      <c r="G2" s="97">
+      <c r="G2" s="94">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="94">
         <v>93</v>
       </c>
-      <c r="I2" s="97">
-        <v>0</v>
-      </c>
-      <c r="J2" s="97">
+      <c r="I2" s="94">
+        <v>0</v>
+      </c>
+      <c r="J2" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="94">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="94">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="94">
         <v>0.121</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="94">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G3" s="97">
+      <c r="G3" s="94">
         <v>0.1</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="94">
         <v>25</v>
       </c>
-      <c r="I3" s="97">
-        <v>0</v>
-      </c>
-      <c r="J3" s="97">
+      <c r="I3" s="94">
+        <v>0</v>
+      </c>
+      <c r="J3" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="94">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="94">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E4" s="97">
+      <c r="E4" s="94">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="94">
         <v>2.3E-2</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="94">
         <v>0.10199999999999999</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="94">
         <v>94</v>
       </c>
-      <c r="I4" s="97">
-        <v>0</v>
-      </c>
-      <c r="J4" s="97">
+      <c r="I4" s="94">
+        <v>0</v>
+      </c>
+      <c r="J4" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="94">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="94">
         <v>0.122</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="94">
         <v>0.19</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="94">
         <v>2.3E-2</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="94">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="94">
         <v>140</v>
       </c>
-      <c r="I5" s="97">
-        <v>0</v>
-      </c>
-      <c r="J5" s="97">
+      <c r="I5" s="94">
+        <v>0</v>
+      </c>
+      <c r="J5" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="94">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="94">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="94">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="94">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="94">
         <v>0.129</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="94">
         <v>117</v>
       </c>
-      <c r="I6" s="97">
-        <v>0</v>
-      </c>
-      <c r="J6" s="97">
+      <c r="I6" s="94">
+        <v>0</v>
+      </c>
+      <c r="J6" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="94">
         <v>4.7E-2</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="94">
         <v>7.8E-2</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="94">
         <v>0.13</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="94">
         <v>2.4E-2</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="94">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="94">
         <v>58</v>
       </c>
-      <c r="I7" s="97">
-        <v>0</v>
-      </c>
-      <c r="J7" s="97">
+      <c r="I7" s="94">
+        <v>0</v>
+      </c>
+      <c r="J7" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="94">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="94">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="94">
         <v>0.106</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="94">
         <v>2.4E-2</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="94">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="94">
         <v>34</v>
       </c>
-      <c r="I8" s="97">
-        <v>0</v>
-      </c>
-      <c r="J8" s="97">
+      <c r="I8" s="94">
+        <v>0</v>
+      </c>
+      <c r="J8" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="94">
         <v>4.7E-2</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="94">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="94">
         <v>0.113</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="94">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="94">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="94">
         <v>94</v>
       </c>
-      <c r="I9" s="97">
-        <v>0</v>
-      </c>
-      <c r="J9" s="97">
+      <c r="I9" s="94">
+        <v>0</v>
+      </c>
+      <c r="J9" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="94">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="94">
         <v>0.107</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="94">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="94">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="94">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="94">
         <v>170</v>
       </c>
-      <c r="I10" s="97">
-        <v>0</v>
-      </c>
-      <c r="J10" s="97">
+      <c r="I10" s="94">
+        <v>0</v>
+      </c>
+      <c r="J10" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="94">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="94">
         <v>0.122</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="94">
         <v>0.159</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="94">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="94">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="94">
         <v>34</v>
       </c>
-      <c r="I11" s="97">
-        <v>0</v>
-      </c>
-      <c r="J11" s="97">
+      <c r="I11" s="94">
+        <v>0</v>
+      </c>
+      <c r="J11" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="94">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="94">
         <v>0.151</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="94">
         <v>0.20100000000000001</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="94">
         <v>2.4E-2</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="94">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="94">
         <v>106</v>
       </c>
-      <c r="I12" s="97">
-        <v>0</v>
-      </c>
-      <c r="J12" s="97">
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="94">
         <v>7.8E-2</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="94">
         <v>0.107</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="94">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="94">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="94">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="94">
         <v>33</v>
       </c>
-      <c r="I13" s="97">
-        <v>0</v>
-      </c>
-      <c r="J13" s="97">
+      <c r="I13" s="94">
+        <v>0</v>
+      </c>
+      <c r="J13" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="94">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="94">
         <v>0.754</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="94">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="94">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="94">
         <v>0.88900000000000001</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="94">
         <v>57</v>
       </c>
-      <c r="I14" s="97">
-        <v>0</v>
-      </c>
-      <c r="J14" s="97">
+      <c r="I14" s="94">
+        <v>0</v>
+      </c>
+      <c r="J14" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="94">
         <v>0.374</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="94">
         <v>0.503</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="94">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F15" s="97">
+      <c r="F15" s="94">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="94">
         <v>0.60899999999999999</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="94">
         <v>33</v>
       </c>
-      <c r="I15" s="97">
-        <v>0</v>
-      </c>
-      <c r="J15" s="97">
+      <c r="I15" s="94">
+        <v>0</v>
+      </c>
+      <c r="J15" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="94">
         <v>0.47399999999999998</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="94">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="94">
         <v>0.81</v>
       </c>
-      <c r="F16" s="97">
+      <c r="F16" s="94">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G16" s="97">
+      <c r="G16" s="94">
         <v>0.751</v>
       </c>
-      <c r="H16" s="97">
+      <c r="H16" s="94">
         <v>36</v>
       </c>
-      <c r="I16" s="97">
-        <v>0</v>
-      </c>
-      <c r="J16" s="97">
+      <c r="I16" s="94">
+        <v>0</v>
+      </c>
+      <c r="J16" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="94">
         <v>0.435</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="94">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="94">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="94">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="94">
         <v>0.65400000000000003</v>
       </c>
-      <c r="H17" s="97">
+      <c r="H17" s="94">
         <v>25</v>
       </c>
-      <c r="I17" s="97">
-        <v>0</v>
-      </c>
-      <c r="J17" s="97">
+      <c r="I17" s="94">
+        <v>0</v>
+      </c>
+      <c r="J17" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="94">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="94">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="94">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F18" s="97">
+      <c r="F18" s="94">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G18" s="97">
+      <c r="G18" s="94">
         <v>0.58199999999999996</v>
       </c>
-      <c r="H18" s="97">
+      <c r="H18" s="94">
         <v>11</v>
       </c>
-      <c r="I18" s="97">
-        <v>0</v>
-      </c>
-      <c r="J18" s="97">
+      <c r="I18" s="94">
+        <v>0</v>
+      </c>
+      <c r="J18" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="94">
         <v>0.378</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="94">
         <v>0.52400000000000002</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="94">
         <v>0.58899999999999997</v>
       </c>
-      <c r="F19" s="97">
+      <c r="F19" s="94">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G19" s="97">
+      <c r="G19" s="94">
         <v>0.58799999999999997</v>
       </c>
-      <c r="H19" s="97">
+      <c r="H19" s="94">
         <v>12</v>
       </c>
-      <c r="I19" s="97">
-        <v>0</v>
-      </c>
-      <c r="J19" s="97">
+      <c r="I19" s="94">
+        <v>0</v>
+      </c>
+      <c r="J19" s="94">
         <v>0</v>
       </c>
     </row>
@@ -5504,578 +5618,578 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="95">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="95">
         <v>0.19</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="95">
         <v>2.1469999999999998</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="95">
         <v>0.182</v>
       </c>
-      <c r="G2" s="98">
+      <c r="G2" s="95">
         <v>0.191</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="95">
         <v>281</v>
       </c>
-      <c r="I2" s="98">
-        <v>0</v>
-      </c>
-      <c r="J2" s="98">
+      <c r="I2" s="95">
+        <v>0</v>
+      </c>
+      <c r="J2" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="95">
         <v>4.7E-2</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="95">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="95">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="95">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G3" s="98">
+      <c r="G3" s="95">
         <v>0.107</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="95">
         <v>75</v>
       </c>
-      <c r="I3" s="98">
-        <v>0</v>
-      </c>
-      <c r="J3" s="98">
+      <c r="I3" s="95">
+        <v>0</v>
+      </c>
+      <c r="J3" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="95">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="95">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="95">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="95">
         <v>0.104</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="95">
         <v>0.106</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="95">
         <v>278</v>
       </c>
-      <c r="I4" s="98">
-        <v>0</v>
-      </c>
-      <c r="J4" s="98">
+      <c r="I4" s="95">
+        <v>0</v>
+      </c>
+      <c r="J4" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="95">
         <v>0.09</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="95">
         <v>0.185</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="95">
         <v>2.1629999999999998</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="95">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="95">
         <v>0.16700000000000001</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="95">
         <v>420</v>
       </c>
-      <c r="I5" s="98">
-        <v>0</v>
-      </c>
-      <c r="J5" s="98">
+      <c r="I5" s="95">
+        <v>0</v>
+      </c>
+      <c r="J5" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="95">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="95">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="95">
         <v>2.169</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="95">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="95">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="95">
         <v>349</v>
       </c>
-      <c r="I6" s="98">
-        <v>0</v>
-      </c>
-      <c r="J6" s="98">
+      <c r="I6" s="95">
+        <v>0</v>
+      </c>
+      <c r="J6" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="95">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="95">
         <v>0.112</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="95">
         <v>1.496</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="95">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="95">
         <v>0.106</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="95">
         <v>172</v>
       </c>
-      <c r="I7" s="98">
-        <v>0</v>
-      </c>
-      <c r="J7" s="98">
+      <c r="I7" s="95">
+        <v>0</v>
+      </c>
+      <c r="J7" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="95">
         <v>3.9E-2</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="95">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="95">
         <v>0.128</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="95">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="95">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="95">
         <v>98</v>
       </c>
-      <c r="I8" s="98">
-        <v>0</v>
-      </c>
-      <c r="J8" s="98">
+      <c r="I8" s="95">
+        <v>0</v>
+      </c>
+      <c r="J8" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="95">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="95">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="95">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="95">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="95">
         <v>0.104</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="95">
         <v>280</v>
       </c>
-      <c r="I9" s="98">
-        <v>0</v>
-      </c>
-      <c r="J9" s="98">
+      <c r="I9" s="95">
+        <v>0</v>
+      </c>
+      <c r="J9" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="95">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="95">
         <v>0.17</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="95">
         <v>2.3929999999999998</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="95">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="95">
         <v>0.155</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="95">
         <v>514</v>
       </c>
-      <c r="I10" s="98">
-        <v>0</v>
-      </c>
-      <c r="J10" s="98">
+      <c r="I10" s="95">
+        <v>0</v>
+      </c>
+      <c r="J10" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="95">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="95">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="95">
         <v>1.425</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="95">
         <v>0.14299999999999999</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="95">
         <v>0.158</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="95">
         <v>98</v>
       </c>
-      <c r="I11" s="98">
-        <v>0</v>
-      </c>
-      <c r="J11" s="98">
+      <c r="I11" s="95">
+        <v>0</v>
+      </c>
+      <c r="J11" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="95">
         <v>0.109</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="95">
         <v>0.19900000000000001</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="95">
         <v>2.0259999999999998</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="95">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="95">
         <v>0.192</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="95">
         <v>313</v>
       </c>
-      <c r="I12" s="98">
-        <v>0</v>
-      </c>
-      <c r="J12" s="98">
+      <c r="I12" s="95">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="95">
         <v>7.8E-2</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="95">
         <v>0.157</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="95">
         <v>1.873</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="95">
         <v>0.248</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="95">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="95">
         <v>97</v>
       </c>
-      <c r="I13" s="98">
-        <v>0</v>
-      </c>
-      <c r="J13" s="98">
+      <c r="I13" s="95">
+        <v>0</v>
+      </c>
+      <c r="J13" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="95">
         <v>0.6</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="95">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="95">
         <v>2.8860000000000001</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="95">
         <v>0.45</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="95">
         <v>1.746</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="95">
         <v>173</v>
       </c>
-      <c r="I14" s="98">
-        <v>0</v>
-      </c>
-      <c r="J14" s="98">
+      <c r="I14" s="95">
+        <v>0</v>
+      </c>
+      <c r="J14" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="95">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="95">
         <v>0.69099999999999995</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="95">
         <v>2.762</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="95">
         <v>0.44400000000000001</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="95">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="95">
         <v>98</v>
       </c>
-      <c r="I15" s="98">
-        <v>0</v>
-      </c>
-      <c r="J15" s="98">
+      <c r="I15" s="95">
+        <v>0</v>
+      </c>
+      <c r="J15" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="95">
         <v>0.47099999999999997</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="95">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="95">
         <v>3.6869999999999998</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="95">
         <v>0.56799999999999995</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="95">
         <v>1.885</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="95">
         <v>108</v>
       </c>
-      <c r="I16" s="98">
-        <v>0</v>
-      </c>
-      <c r="J16" s="98">
+      <c r="I16" s="95">
+        <v>0</v>
+      </c>
+      <c r="J16" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="95">
         <v>0.42899999999999999</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="95">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="95">
         <v>2.9590000000000001</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="95">
         <v>0.32900000000000001</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="95">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="95">
         <v>75</v>
       </c>
-      <c r="I17" s="98">
-        <v>0</v>
-      </c>
-      <c r="J17" s="98">
+      <c r="I17" s="95">
+        <v>0</v>
+      </c>
+      <c r="J17" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="95">
         <v>0.35</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="95">
         <v>0.8</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="95">
         <v>2.5880000000000001</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="95">
         <v>0.621</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="95">
         <v>1.714</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="95">
         <v>32</v>
       </c>
-      <c r="I18" s="98">
-        <v>0</v>
-      </c>
-      <c r="J18" s="98">
+      <c r="I18" s="95">
+        <v>0</v>
+      </c>
+      <c r="J18" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="95">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="95">
         <v>0.878</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="95">
         <v>2.6549999999999998</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="95">
         <v>0.69699999999999995</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="95">
         <v>2.5070000000000001</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="95">
         <v>36</v>
       </c>
-      <c r="I19" s="98">
-        <v>0</v>
-      </c>
-      <c r="J19" s="98">
+      <c r="I19" s="95">
+        <v>0</v>
+      </c>
+      <c r="J19" s="95">
         <v>0</v>
       </c>
     </row>
@@ -6714,8 +6828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6737,13 +6851,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E4" s="92" t="s">
@@ -7059,13 +7173,13 @@
       <c r="D17" s="72"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E24" s="92" t="s">
